--- a/pred_ohlcv/54/2019-10-14 BTG ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-14 BTG ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>9285</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
-        <v>9202.5</v>
+        <v>9202.25</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>9285</v>
       </c>
       <c r="C3" t="n">
-        <v>9310</v>
+        <v>9285</v>
       </c>
       <c r="D3" t="n">
-        <v>9310</v>
+        <v>9285</v>
       </c>
       <c r="E3" t="n">
-        <v>9235</v>
+        <v>9285</v>
       </c>
       <c r="F3" t="n">
-        <v>12.3337</v>
+        <v>16</v>
       </c>
       <c r="G3" t="n">
-        <v>9203.166666666666</v>
+        <v>9202.5</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,7 +471,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9300</v>
+        <v>9285</v>
       </c>
       <c r="C4" t="n">
         <v>9310</v>
@@ -469,16 +480,19 @@
         <v>9310</v>
       </c>
       <c r="E4" t="n">
-        <v>9300</v>
+        <v>9235</v>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>12.3337</v>
       </c>
       <c r="G4" t="n">
-        <v>9203.833333333334</v>
+        <v>9203.166666666666</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9310</v>
+        <v>9300</v>
       </c>
       <c r="C5" t="n">
         <v>9310</v>
@@ -495,16 +509,19 @@
         <v>9310</v>
       </c>
       <c r="E5" t="n">
-        <v>9310</v>
+        <v>9300</v>
       </c>
       <c r="F5" t="n">
-        <v>11.5</v>
+        <v>70</v>
       </c>
       <c r="G5" t="n">
-        <v>9204.583333333334</v>
+        <v>9203.833333333334</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -524,12 +541,15 @@
         <v>9310</v>
       </c>
       <c r="F6" t="n">
-        <v>33</v>
+        <v>11.5</v>
       </c>
       <c r="G6" t="n">
-        <v>9205.166666666666</v>
+        <v>9204.583333333334</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9230</v>
+        <v>9310</v>
       </c>
       <c r="C7" t="n">
-        <v>9230</v>
+        <v>9310</v>
       </c>
       <c r="D7" t="n">
-        <v>9230</v>
+        <v>9310</v>
       </c>
       <c r="E7" t="n">
-        <v>9230</v>
+        <v>9310</v>
       </c>
       <c r="F7" t="n">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>9204.416666666666</v>
+        <v>9205.166666666666</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -564,24 +587,27 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>9235</v>
+        <v>9230</v>
       </c>
       <c r="C8" t="n">
-        <v>9200</v>
+        <v>9230</v>
       </c>
       <c r="D8" t="n">
-        <v>9235</v>
+        <v>9230</v>
       </c>
       <c r="E8" t="n">
-        <v>9145</v>
+        <v>9230</v>
       </c>
       <c r="F8" t="n">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="G8" t="n">
-        <v>9203.333333333334</v>
+        <v>9204.416666666666</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,24 +616,27 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>9205</v>
+        <v>9235</v>
       </c>
       <c r="C9" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="D9" t="n">
-        <v>9205</v>
+        <v>9235</v>
       </c>
       <c r="E9" t="n">
-        <v>9205</v>
+        <v>9145</v>
       </c>
       <c r="F9" t="n">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="G9" t="n">
-        <v>9201.416666666666</v>
+        <v>9203.333333333334</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,24 +645,27 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="C10" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="D10" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="E10" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="F10" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="G10" t="n">
-        <v>9201.916666666666</v>
+        <v>9201.416666666666</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -654,12 +686,15 @@
         <v>9260</v>
       </c>
       <c r="F11" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>9202.416666666666</v>
+        <v>9201.916666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="C12" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="D12" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="E12" t="n">
-        <v>9200</v>
+        <v>9260</v>
       </c>
       <c r="F12" t="n">
-        <v>2.2925</v>
+        <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>9200.5</v>
+        <v>9202.416666666666</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,24 +732,27 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>9190</v>
+        <v>9200</v>
       </c>
       <c r="C13" t="n">
-        <v>9185</v>
+        <v>9200</v>
       </c>
       <c r="D13" t="n">
-        <v>9190</v>
+        <v>9200</v>
       </c>
       <c r="E13" t="n">
-        <v>9185</v>
+        <v>9200</v>
       </c>
       <c r="F13" t="n">
-        <v>222.1019</v>
+        <v>2.2925</v>
       </c>
       <c r="G13" t="n">
-        <v>9199.583333333334</v>
+        <v>9200.5</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>9160</v>
+        <v>9190</v>
       </c>
       <c r="C14" t="n">
-        <v>9145</v>
+        <v>9185</v>
       </c>
       <c r="D14" t="n">
-        <v>9160</v>
+        <v>9190</v>
       </c>
       <c r="E14" t="n">
-        <v>9145</v>
+        <v>9185</v>
       </c>
       <c r="F14" t="n">
-        <v>666.3059</v>
+        <v>222.1019</v>
       </c>
       <c r="G14" t="n">
-        <v>9198.166666666666</v>
+        <v>9199.583333333334</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>9235</v>
+        <v>9160</v>
       </c>
       <c r="C15" t="n">
-        <v>9275</v>
+        <v>9145</v>
       </c>
       <c r="D15" t="n">
-        <v>9275</v>
+        <v>9160</v>
       </c>
       <c r="E15" t="n">
-        <v>9235</v>
+        <v>9145</v>
       </c>
       <c r="F15" t="n">
-        <v>190.5</v>
+        <v>666.3059</v>
       </c>
       <c r="G15" t="n">
-        <v>9199</v>
+        <v>9198.166666666666</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -772,24 +819,27 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9130</v>
+        <v>9235</v>
       </c>
       <c r="C16" t="n">
-        <v>9130</v>
+        <v>9275</v>
       </c>
       <c r="D16" t="n">
-        <v>9130</v>
+        <v>9275</v>
       </c>
       <c r="E16" t="n">
-        <v>9130</v>
+        <v>9235</v>
       </c>
       <c r="F16" t="n">
-        <v>1.6966</v>
+        <v>190.5</v>
       </c>
       <c r="G16" t="n">
-        <v>9197.583333333334</v>
+        <v>9199</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -798,24 +848,27 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9220</v>
+        <v>9130</v>
       </c>
       <c r="C17" t="n">
-        <v>9210</v>
+        <v>9130</v>
       </c>
       <c r="D17" t="n">
-        <v>9225</v>
+        <v>9130</v>
       </c>
       <c r="E17" t="n">
-        <v>9205</v>
+        <v>9130</v>
       </c>
       <c r="F17" t="n">
-        <v>40.367</v>
+        <v>1.6966</v>
       </c>
       <c r="G17" t="n">
-        <v>9197.5</v>
+        <v>9197.583333333334</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9135</v>
+        <v>9220</v>
       </c>
       <c r="C18" t="n">
+        <v>9210</v>
+      </c>
+      <c r="D18" t="n">
+        <v>9225</v>
+      </c>
+      <c r="E18" t="n">
         <v>9205</v>
       </c>
-      <c r="D18" t="n">
-        <v>9215</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9075</v>
-      </c>
       <c r="F18" t="n">
-        <v>196.3931</v>
+        <v>40.367</v>
       </c>
       <c r="G18" t="n">
-        <v>9197.333333333334</v>
+        <v>9197.5</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,24 +906,27 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>9195</v>
+        <v>9135</v>
       </c>
       <c r="C19" t="n">
-        <v>9195</v>
+        <v>9205</v>
       </c>
       <c r="D19" t="n">
-        <v>9195</v>
+        <v>9215</v>
       </c>
       <c r="E19" t="n">
-        <v>9195</v>
+        <v>9075</v>
       </c>
       <c r="F19" t="n">
-        <v>6.44</v>
+        <v>196.3931</v>
       </c>
       <c r="G19" t="n">
-        <v>9198.333333333334</v>
+        <v>9197.333333333334</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9215</v>
+        <v>9195</v>
       </c>
       <c r="C20" t="n">
-        <v>9220</v>
+        <v>9195</v>
       </c>
       <c r="D20" t="n">
-        <v>9220</v>
+        <v>9195</v>
       </c>
       <c r="E20" t="n">
-        <v>9210</v>
+        <v>9195</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>6.44</v>
       </c>
       <c r="G20" t="n">
-        <v>9198.5</v>
+        <v>9198.333333333334</v>
       </c>
       <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,10 +964,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>9210</v>
+        <v>9215</v>
       </c>
       <c r="C21" t="n">
-        <v>9215</v>
+        <v>9220</v>
       </c>
       <c r="D21" t="n">
         <v>9220</v>
@@ -914,12 +976,15 @@
         <v>9210</v>
       </c>
       <c r="F21" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>9200</v>
+        <v>9198.5</v>
       </c>
       <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -928,24 +993,27 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>9135</v>
+        <v>9210</v>
       </c>
       <c r="C22" t="n">
-        <v>9190</v>
+        <v>9215</v>
       </c>
       <c r="D22" t="n">
-        <v>9195</v>
+        <v>9220</v>
       </c>
       <c r="E22" t="n">
-        <v>9135</v>
+        <v>9210</v>
       </c>
       <c r="F22" t="n">
-        <v>174.2624</v>
+        <v>96</v>
       </c>
       <c r="G22" t="n">
-        <v>9199.833333333334</v>
+        <v>9200</v>
       </c>
       <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -954,24 +1022,27 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9200</v>
+        <v>9135</v>
       </c>
       <c r="C23" t="n">
-        <v>9200</v>
+        <v>9190</v>
       </c>
       <c r="D23" t="n">
-        <v>9200</v>
+        <v>9195</v>
       </c>
       <c r="E23" t="n">
-        <v>9200</v>
+        <v>9135</v>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>174.2624</v>
       </c>
       <c r="G23" t="n">
-        <v>9200.333333333334</v>
+        <v>9199.833333333334</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="C24" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="D24" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="E24" t="n">
-        <v>9205</v>
+        <v>9200</v>
       </c>
       <c r="F24" t="n">
-        <v>40.3357</v>
+        <v>30</v>
       </c>
       <c r="G24" t="n">
-        <v>9200.916666666666</v>
+        <v>9200.333333333334</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="C25" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="D25" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="E25" t="n">
-        <v>9200</v>
+        <v>9205</v>
       </c>
       <c r="F25" t="n">
-        <v>6.047</v>
+        <v>40.3357</v>
       </c>
       <c r="G25" t="n">
-        <v>9201.416666666666</v>
+        <v>9200.916666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1044,12 +1121,15 @@
         <v>9200</v>
       </c>
       <c r="F26" t="n">
-        <v>4.7215</v>
+        <v>6.047</v>
       </c>
       <c r="G26" t="n">
-        <v>9201.916666666666</v>
+        <v>9201.416666666666</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1067,15 +1147,18 @@
         <v>9200</v>
       </c>
       <c r="E27" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="F27" t="n">
-        <v>45.0517</v>
+        <v>4.7215</v>
       </c>
       <c r="G27" t="n">
-        <v>9202.416666666666</v>
+        <v>9201.916666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1093,15 +1176,18 @@
         <v>9200</v>
       </c>
       <c r="E28" t="n">
-        <v>9200</v>
+        <v>9195</v>
       </c>
       <c r="F28" t="n">
-        <v>9.9</v>
+        <v>45.0517</v>
       </c>
       <c r="G28" t="n">
-        <v>9202.916666666666</v>
+        <v>9202.416666666666</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1119,15 +1205,18 @@
         <v>9200</v>
       </c>
       <c r="E29" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="F29" t="n">
-        <v>47.974</v>
+        <v>9.9</v>
       </c>
       <c r="G29" t="n">
-        <v>9203.416666666666</v>
+        <v>9202.916666666666</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="C30" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="D30" t="n">
-        <v>9195</v>
+        <v>9200</v>
       </c>
       <c r="E30" t="n">
         <v>9195</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>47.974</v>
       </c>
       <c r="G30" t="n">
-        <v>9203.916666666666</v>
+        <v>9203.416666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1165,21 +1257,24 @@
         <v>9195</v>
       </c>
       <c r="C31" t="n">
-        <v>9235</v>
+        <v>9195</v>
       </c>
       <c r="D31" t="n">
-        <v>9235</v>
+        <v>9195</v>
       </c>
       <c r="E31" t="n">
         <v>9195</v>
       </c>
       <c r="F31" t="n">
-        <v>80.5</v>
+        <v>6</v>
       </c>
       <c r="G31" t="n">
-        <v>9205.083333333334</v>
+        <v>9203.916666666666</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1188,24 +1283,27 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>9240</v>
+        <v>9195</v>
       </c>
       <c r="C32" t="n">
-        <v>9240</v>
+        <v>9235</v>
       </c>
       <c r="D32" t="n">
-        <v>9240</v>
+        <v>9235</v>
       </c>
       <c r="E32" t="n">
-        <v>9240</v>
+        <v>9195</v>
       </c>
       <c r="F32" t="n">
-        <v>64</v>
+        <v>80.5</v>
       </c>
       <c r="G32" t="n">
-        <v>9206.666666666666</v>
+        <v>9205.083333333334</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,24 +1312,27 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="C33" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="D33" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="E33" t="n">
-        <v>9245</v>
+        <v>9240</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
-        <v>9208.333333333334</v>
+        <v>9206.666666666666</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>9245</v>
       </c>
       <c r="C34" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="D34" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="E34" t="n">
         <v>9245</v>
       </c>
       <c r="F34" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>9210.583333333334</v>
+        <v>9208.333333333334</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9185</v>
+        <v>9245</v>
       </c>
       <c r="C35" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="D35" t="n">
         <v>9280</v>
       </c>
       <c r="E35" t="n">
-        <v>9185</v>
+        <v>9245</v>
       </c>
       <c r="F35" t="n">
-        <v>42.6163</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>9212.666666666666</v>
+        <v>9210.583333333334</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>9270</v>
+        <v>9185</v>
       </c>
       <c r="C36" t="n">
         <v>9270</v>
       </c>
       <c r="D36" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="E36" t="n">
-        <v>9270</v>
+        <v>9185</v>
       </c>
       <c r="F36" t="n">
-        <v>30.5</v>
+        <v>42.6163</v>
       </c>
       <c r="G36" t="n">
-        <v>9214.583333333334</v>
+        <v>9212.666666666666</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1330,12 +1440,15 @@
         <v>9270</v>
       </c>
       <c r="F37" t="n">
-        <v>53.8396</v>
+        <v>30.5</v>
       </c>
       <c r="G37" t="n">
-        <v>9217.416666666666</v>
+        <v>9214.583333333334</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,24 +1457,27 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="C38" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="D38" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="E38" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="F38" t="n">
-        <v>2</v>
+        <v>53.8396</v>
       </c>
       <c r="G38" t="n">
-        <v>9218.25</v>
+        <v>9217.416666666666</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1370,24 +1486,27 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="C39" t="n">
-        <v>9270</v>
+        <v>9205</v>
       </c>
       <c r="D39" t="n">
-        <v>9270</v>
+        <v>9205</v>
       </c>
       <c r="E39" t="n">
-        <v>9260</v>
+        <v>9205</v>
       </c>
       <c r="F39" t="n">
-        <v>32.5</v>
+        <v>2</v>
       </c>
       <c r="G39" t="n">
-        <v>9220.083333333334</v>
+        <v>9218.25</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +1515,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>9270</v>
+        <v>9260</v>
       </c>
       <c r="C40" t="n">
         <v>9270</v>
@@ -1405,15 +1524,18 @@
         <v>9270</v>
       </c>
       <c r="E40" t="n">
-        <v>9270</v>
+        <v>9260</v>
       </c>
       <c r="F40" t="n">
-        <v>39.5</v>
+        <v>32.5</v>
       </c>
       <c r="G40" t="n">
-        <v>9221.916666666666</v>
+        <v>9220.083333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1434,12 +1556,15 @@
         <v>9270</v>
       </c>
       <c r="F41" t="n">
-        <v>71</v>
+        <v>39.5</v>
       </c>
       <c r="G41" t="n">
-        <v>9223.833333333334</v>
+        <v>9221.916666666666</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="C42" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="D42" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="E42" t="n">
-        <v>9205</v>
+        <v>9270</v>
       </c>
       <c r="F42" t="n">
-        <v>7.044</v>
+        <v>71</v>
       </c>
       <c r="G42" t="n">
-        <v>9224.666666666666</v>
+        <v>9223.833333333334</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>9280</v>
+        <v>9205</v>
       </c>
       <c r="C43" t="n">
-        <v>9290</v>
+        <v>9205</v>
       </c>
       <c r="D43" t="n">
-        <v>9290</v>
+        <v>9205</v>
       </c>
       <c r="E43" t="n">
-        <v>9280</v>
+        <v>9205</v>
       </c>
       <c r="F43" t="n">
-        <v>44</v>
+        <v>7.044</v>
       </c>
       <c r="G43" t="n">
-        <v>9226.833333333334</v>
+        <v>9224.666666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>9205</v>
+        <v>9280</v>
       </c>
       <c r="C44" t="n">
-        <v>9200</v>
+        <v>9290</v>
       </c>
       <c r="D44" t="n">
-        <v>9205</v>
+        <v>9290</v>
       </c>
       <c r="E44" t="n">
-        <v>9200</v>
+        <v>9280</v>
       </c>
       <c r="F44" t="n">
-        <v>190</v>
+        <v>44</v>
       </c>
       <c r="G44" t="n">
-        <v>9227.5</v>
+        <v>9226.833333333334</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9275</v>
+        <v>9205</v>
       </c>
       <c r="C45" t="n">
-        <v>9290</v>
+        <v>9200</v>
       </c>
       <c r="D45" t="n">
-        <v>9290</v>
+        <v>9205</v>
       </c>
       <c r="E45" t="n">
-        <v>9275</v>
+        <v>9200</v>
       </c>
       <c r="F45" t="n">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="G45" t="n">
-        <v>9229.583333333334</v>
+        <v>9227.5</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="C46" t="n">
         <v>9290</v>
@@ -1561,15 +1698,18 @@
         <v>9290</v>
       </c>
       <c r="E46" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="F46" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="G46" t="n">
-        <v>9231.666666666666</v>
+        <v>9229.583333333334</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>9280</v>
+      </c>
+      <c r="C47" t="n">
         <v>9290</v>
       </c>
-      <c r="C47" t="n">
-        <v>9190</v>
-      </c>
       <c r="D47" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="E47" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="F47" t="n">
-        <v>153.7523</v>
+        <v>45</v>
       </c>
       <c r="G47" t="n">
-        <v>9232.083333333334</v>
+        <v>9231.666666666666</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="C48" t="n">
         <v>9190</v>
       </c>
       <c r="D48" t="n">
-        <v>9190</v>
+        <v>9295</v>
       </c>
       <c r="E48" t="n">
         <v>9190</v>
       </c>
       <c r="F48" t="n">
-        <v>121.2524</v>
+        <v>153.7523</v>
       </c>
       <c r="G48" t="n">
-        <v>9233.5</v>
+        <v>9232.083333333334</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="C49" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="D49" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="E49" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="F49" t="n">
-        <v>18</v>
+        <v>121.2524</v>
       </c>
       <c r="G49" t="n">
-        <v>9235.25</v>
+        <v>9233.5</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
+        <v>9275</v>
+      </c>
+      <c r="C50" t="n">
         <v>9270</v>
       </c>
-      <c r="C50" t="n">
-        <v>9295</v>
-      </c>
       <c r="D50" t="n">
-        <v>9295</v>
+        <v>9275</v>
       </c>
       <c r="E50" t="n">
         <v>9270</v>
       </c>
       <c r="F50" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G50" t="n">
-        <v>9237.416666666666</v>
+        <v>9235.25</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1682,24 +1834,27 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="C51" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="D51" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="E51" t="n">
-        <v>9290</v>
+        <v>9270</v>
       </c>
       <c r="F51" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="G51" t="n">
-        <v>9240.083333333334</v>
+        <v>9237.416666666666</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1720,12 +1875,15 @@
         <v>9290</v>
       </c>
       <c r="F52" t="n">
-        <v>29.5</v>
+        <v>33</v>
       </c>
       <c r="G52" t="n">
-        <v>9242.083333333334</v>
+        <v>9240.083333333334</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1734,24 +1892,27 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="C53" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="D53" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="E53" t="n">
-        <v>9190</v>
+        <v>9290</v>
       </c>
       <c r="F53" t="n">
-        <v>2.0454</v>
+        <v>29.5</v>
       </c>
       <c r="G53" t="n">
-        <v>9241.583333333334</v>
+        <v>9242.083333333334</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1760,24 +1921,27 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>9195</v>
+        <v>9190</v>
       </c>
       <c r="C54" t="n">
         <v>9190</v>
       </c>
       <c r="D54" t="n">
-        <v>9195</v>
+        <v>9190</v>
       </c>
       <c r="E54" t="n">
         <v>9190</v>
       </c>
       <c r="F54" t="n">
-        <v>39.5706</v>
+        <v>2.0454</v>
       </c>
       <c r="G54" t="n">
-        <v>9241.083333333334</v>
+        <v>9241.583333333334</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1786,24 +1950,27 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>9270</v>
+        <v>9195</v>
       </c>
       <c r="C55" t="n">
-        <v>9275</v>
+        <v>9190</v>
       </c>
       <c r="D55" t="n">
-        <v>9275</v>
+        <v>9195</v>
       </c>
       <c r="E55" t="n">
-        <v>9270</v>
+        <v>9190</v>
       </c>
       <c r="F55" t="n">
-        <v>35</v>
+        <v>39.5706</v>
       </c>
       <c r="G55" t="n">
-        <v>9241.166666666666</v>
+        <v>9241.083333333334</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,21 +1982,24 @@
         <v>9270</v>
       </c>
       <c r="C56" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="D56" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="E56" t="n">
         <v>9270</v>
       </c>
       <c r="F56" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G56" t="n">
         <v>9241.166666666666</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,24 +2008,27 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="C57" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D57" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E57" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="F57" t="n">
-        <v>6.38</v>
+        <v>6</v>
       </c>
       <c r="G57" t="n">
-        <v>9240.75</v>
+        <v>9241.166666666666</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1864,24 +2037,27 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="C58" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="D58" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="E58" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="F58" t="n">
-        <v>16.6493</v>
+        <v>6.38</v>
       </c>
       <c r="G58" t="n">
-        <v>9240.25</v>
+        <v>9240.75</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="C59" t="n">
         <v>9270</v>
       </c>
       <c r="D59" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E59" t="n">
         <v>9270</v>
       </c>
       <c r="F59" t="n">
-        <v>60</v>
+        <v>16.6493</v>
       </c>
       <c r="G59" t="n">
-        <v>9239.75</v>
+        <v>9240.25</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,21 +2098,24 @@
         <v>9275</v>
       </c>
       <c r="C60" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D60" t="n">
         <v>9275</v>
       </c>
       <c r="E60" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="F60" t="n">
-        <v>0.10781671</v>
+        <v>60</v>
       </c>
       <c r="G60" t="n">
-        <v>9239.583333333334</v>
+        <v>9239.75</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>9275</v>
       </c>
       <c r="F61" t="n">
-        <v>20.2156</v>
+        <v>0.10781671</v>
       </c>
       <c r="G61" t="n">
-        <v>9239.416666666666</v>
+        <v>9239.583333333334</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1980,12 +2165,15 @@
         <v>9275</v>
       </c>
       <c r="F62" t="n">
-        <v>45</v>
+        <v>20.2156</v>
       </c>
       <c r="G62" t="n">
-        <v>9239.25</v>
+        <v>9239.416666666666</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>9195</v>
+        <v>9275</v>
       </c>
       <c r="C63" t="n">
-        <v>9190</v>
+        <v>9275</v>
       </c>
       <c r="D63" t="n">
         <v>9275</v>
       </c>
       <c r="E63" t="n">
-        <v>9190</v>
+        <v>9275</v>
       </c>
       <c r="F63" t="n">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="G63" t="n">
-        <v>9237.25</v>
+        <v>9239.25</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,25 +2211,28 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9180</v>
+        <v>9195</v>
       </c>
       <c r="C64" t="n">
-        <v>9205</v>
+        <v>9190</v>
       </c>
       <c r="D64" t="n">
-        <v>9205</v>
+        <v>9275</v>
       </c>
       <c r="E64" t="n">
-        <v>9180</v>
+        <v>9190</v>
       </c>
       <c r="F64" t="n">
-        <v>290</v>
+        <v>114</v>
       </c>
       <c r="G64" t="n">
-        <v>9235.5</v>
+        <v>9237.25</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2046,25 +2240,28 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>9175</v>
+        <v>9180</v>
       </c>
       <c r="C65" t="n">
-        <v>9170</v>
+        <v>9205</v>
       </c>
       <c r="D65" t="n">
-        <v>9270</v>
+        <v>9205</v>
       </c>
       <c r="E65" t="n">
-        <v>9170</v>
+        <v>9180</v>
       </c>
       <c r="F65" t="n">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="G65" t="n">
-        <v>9233.166666666666</v>
+        <v>9235.5</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2072,25 +2269,28 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>9175</v>
+      </c>
+      <c r="C66" t="n">
         <v>9170</v>
       </c>
-      <c r="C66" t="n">
-        <v>9245</v>
-      </c>
       <c r="D66" t="n">
-        <v>9245</v>
+        <v>9270</v>
       </c>
       <c r="E66" t="n">
-        <v>9155</v>
+        <v>9170</v>
       </c>
       <c r="F66" t="n">
-        <v>286.3054</v>
+        <v>260</v>
       </c>
       <c r="G66" t="n">
-        <v>9232.083333333334</v>
+        <v>9233.166666666666</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2098,25 +2298,28 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>9230</v>
+        <v>9170</v>
       </c>
       <c r="C67" t="n">
-        <v>9260</v>
+        <v>9245</v>
       </c>
       <c r="D67" t="n">
-        <v>9260</v>
+        <v>9245</v>
       </c>
       <c r="E67" t="n">
-        <v>9220</v>
+        <v>9155</v>
       </c>
       <c r="F67" t="n">
-        <v>52</v>
+        <v>286.3054</v>
       </c>
       <c r="G67" t="n">
-        <v>9232.583333333334</v>
+        <v>9232.083333333334</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2124,25 +2327,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>9145</v>
+        <v>9230</v>
       </c>
       <c r="C68" t="n">
-        <v>9140</v>
+        <v>9260</v>
       </c>
       <c r="D68" t="n">
-        <v>9145</v>
+        <v>9260</v>
       </c>
       <c r="E68" t="n">
-        <v>9140</v>
+        <v>9220</v>
       </c>
       <c r="F68" t="n">
-        <v>230</v>
+        <v>52</v>
       </c>
       <c r="G68" t="n">
-        <v>9231.583333333334</v>
+        <v>9232.583333333334</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2153,7 +2359,7 @@
         <v>9145</v>
       </c>
       <c r="C69" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="D69" t="n">
         <v>9145</v>
@@ -2162,13 +2368,16 @@
         <v>9140</v>
       </c>
       <c r="F69" t="n">
-        <v>59.6</v>
+        <v>230</v>
       </c>
       <c r="G69" t="n">
-        <v>9230.583333333334</v>
+        <v>9231.583333333334</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2179,22 +2388,25 @@
         <v>9145</v>
       </c>
       <c r="C70" t="n">
-        <v>9215</v>
+        <v>9145</v>
       </c>
       <c r="D70" t="n">
-        <v>9220</v>
+        <v>9145</v>
       </c>
       <c r="E70" t="n">
-        <v>9145</v>
+        <v>9140</v>
       </c>
       <c r="F70" t="n">
-        <v>24</v>
+        <v>59.6</v>
       </c>
       <c r="G70" t="n">
-        <v>9229.833333333334</v>
+        <v>9230.583333333334</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2202,25 +2414,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>9150</v>
+        <v>9145</v>
       </c>
       <c r="C71" t="n">
-        <v>9140</v>
+        <v>9215</v>
       </c>
       <c r="D71" t="n">
-        <v>9150</v>
+        <v>9220</v>
       </c>
       <c r="E71" t="n">
-        <v>9140</v>
+        <v>9145</v>
       </c>
       <c r="F71" t="n">
-        <v>60.569</v>
+        <v>24</v>
       </c>
       <c r="G71" t="n">
-        <v>9227.833333333334</v>
+        <v>9229.833333333334</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2228,25 +2443,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>9150</v>
+      </c>
+      <c r="C72" t="n">
         <v>9140</v>
       </c>
-      <c r="C72" t="n">
-        <v>9210</v>
-      </c>
       <c r="D72" t="n">
-        <v>9210</v>
+        <v>9150</v>
       </c>
       <c r="E72" t="n">
         <v>9140</v>
       </c>
       <c r="F72" t="n">
-        <v>137.9897</v>
+        <v>60.569</v>
       </c>
       <c r="G72" t="n">
-        <v>9228</v>
+        <v>9227.833333333334</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2254,25 +2472,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>9200</v>
+        <v>9140</v>
       </c>
       <c r="C73" t="n">
-        <v>9250</v>
+        <v>9210</v>
       </c>
       <c r="D73" t="n">
-        <v>9250</v>
+        <v>9210</v>
       </c>
       <c r="E73" t="n">
-        <v>9200</v>
+        <v>9140</v>
       </c>
       <c r="F73" t="n">
-        <v>58.5</v>
+        <v>137.9897</v>
       </c>
       <c r="G73" t="n">
-        <v>9229.083333333334</v>
+        <v>9228</v>
       </c>
       <c r="H73" t="n">
         <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2280,25 +2501,28 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="C74" t="n">
-        <v>9275</v>
+        <v>9250</v>
       </c>
       <c r="D74" t="n">
-        <v>9275</v>
+        <v>9250</v>
       </c>
       <c r="E74" t="n">
-        <v>9245</v>
+        <v>9200</v>
       </c>
       <c r="F74" t="n">
-        <v>255</v>
+        <v>58.5</v>
       </c>
       <c r="G74" t="n">
-        <v>9231.25</v>
+        <v>9229.083333333334</v>
       </c>
       <c r="H74" t="n">
         <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2306,25 +2530,28 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>9265</v>
+        <v>9245</v>
       </c>
       <c r="C75" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="D75" t="n">
-        <v>9270</v>
+        <v>9275</v>
       </c>
       <c r="E75" t="n">
-        <v>9265</v>
+        <v>9245</v>
       </c>
       <c r="F75" t="n">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="G75" t="n">
-        <v>9231.166666666666</v>
+        <v>9231.25</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2332,25 +2559,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>9220</v>
+        <v>9265</v>
       </c>
       <c r="C76" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D76" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E76" t="n">
-        <v>9220</v>
+        <v>9265</v>
       </c>
       <c r="F76" t="n">
-        <v>194.4882</v>
+        <v>111</v>
       </c>
       <c r="G76" t="n">
-        <v>9233.583333333334</v>
+        <v>9231.166666666666</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2358,25 +2588,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>9215</v>
+        <v>9220</v>
       </c>
       <c r="C77" t="n">
-        <v>9215</v>
+        <v>9275</v>
       </c>
       <c r="D77" t="n">
-        <v>9215</v>
+        <v>9275</v>
       </c>
       <c r="E77" t="n">
-        <v>9215</v>
+        <v>9220</v>
       </c>
       <c r="F77" t="n">
-        <v>53.0833</v>
+        <v>194.4882</v>
       </c>
       <c r="G77" t="n">
-        <v>9233.666666666666</v>
+        <v>9233.583333333334</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="C78" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="D78" t="n">
-        <v>9270</v>
+        <v>9215</v>
       </c>
       <c r="E78" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="F78" t="n">
-        <v>33</v>
+        <v>53.0833</v>
       </c>
       <c r="G78" t="n">
-        <v>9234.75</v>
+        <v>9233.666666666666</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,25 +2646,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
+        <v>9265</v>
+      </c>
+      <c r="C79" t="n">
         <v>9270</v>
       </c>
-      <c r="C79" t="n">
-        <v>9275</v>
-      </c>
       <c r="D79" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E79" t="n">
-        <v>9270</v>
+        <v>9265</v>
       </c>
       <c r="F79" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G79" t="n">
-        <v>9236.083333333334</v>
+        <v>9234.75</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="C80" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="D80" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="E80" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="F80" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="G80" t="n">
-        <v>9237.083333333334</v>
+        <v>9236.083333333334</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2465,21 +2707,24 @@
         <v>9275</v>
       </c>
       <c r="C81" t="n">
-        <v>9275</v>
+        <v>9280</v>
       </c>
       <c r="D81" t="n">
-        <v>9275</v>
+        <v>9280</v>
       </c>
       <c r="E81" t="n">
         <v>9275</v>
       </c>
       <c r="F81" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="G81" t="n">
-        <v>9238.083333333334</v>
+        <v>9237.083333333334</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2500,12 +2745,15 @@
         <v>9275</v>
       </c>
       <c r="F82" t="n">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G82" t="n">
-        <v>9239.5</v>
+        <v>9238.083333333334</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2526,12 +2774,15 @@
         <v>9275</v>
       </c>
       <c r="F83" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G83" t="n">
-        <v>9240.75</v>
+        <v>9239.5</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>9275</v>
       </c>
       <c r="F84" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="G84" t="n">
-        <v>9241.916666666666</v>
+        <v>9240.75</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="C85" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="D85" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="E85" t="n">
-        <v>9280</v>
+        <v>9275</v>
       </c>
       <c r="F85" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G85" t="n">
-        <v>9243.25</v>
+        <v>9241.916666666666</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2607,9 +2864,12 @@
         <v>4</v>
       </c>
       <c r="G86" t="n">
-        <v>9244.583333333334</v>
+        <v>9243.25</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2633,9 +2893,12 @@
         <v>4</v>
       </c>
       <c r="G87" t="n">
-        <v>9245.916666666666</v>
+        <v>9244.583333333334</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2647,21 +2910,24 @@
         <v>9280</v>
       </c>
       <c r="C88" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="D88" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="E88" t="n">
         <v>9280</v>
       </c>
       <c r="F88" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G88" t="n">
-        <v>9247.333333333334</v>
+        <v>9245.916666666666</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2670,7 +2936,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="C89" t="n">
         <v>9285</v>
@@ -2679,15 +2945,18 @@
         <v>9285</v>
       </c>
       <c r="E89" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="F89" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G89" t="n">
-        <v>9248.75</v>
+        <v>9247.333333333334</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>9285</v>
       </c>
       <c r="F90" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G90" t="n">
-        <v>9250.25</v>
+        <v>9248.75</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="C91" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="D91" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="E91" t="n">
-        <v>9280</v>
+        <v>9285</v>
       </c>
       <c r="F91" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G91" t="n">
-        <v>9251</v>
+        <v>9250.25</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="C92" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="D92" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="E92" t="n">
-        <v>9190</v>
+        <v>9280</v>
       </c>
       <c r="F92" t="n">
-        <v>15.9441</v>
+        <v>33</v>
       </c>
       <c r="G92" t="n">
-        <v>9250.166666666666</v>
+        <v>9251</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2774,24 +3052,27 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="C93" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="D93" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="E93" t="n">
-        <v>9215</v>
+        <v>9190</v>
       </c>
       <c r="F93" t="n">
-        <v>30.8975</v>
+        <v>15.9441</v>
       </c>
       <c r="G93" t="n">
-        <v>9249.666666666666</v>
+        <v>9250.166666666666</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="C94" t="n">
-        <v>9255</v>
+        <v>9215</v>
       </c>
       <c r="D94" t="n">
-        <v>9255</v>
+        <v>9215</v>
       </c>
       <c r="E94" t="n">
-        <v>9250</v>
+        <v>9215</v>
       </c>
       <c r="F94" t="n">
-        <v>60.5</v>
+        <v>30.8975</v>
       </c>
       <c r="G94" t="n">
-        <v>9249.25</v>
+        <v>9249.666666666666</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="C95" t="n">
-        <v>9220</v>
+        <v>9255</v>
       </c>
       <c r="D95" t="n">
-        <v>9220</v>
+        <v>9255</v>
       </c>
       <c r="E95" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="F95" t="n">
-        <v>75.5</v>
+        <v>60.5</v>
       </c>
       <c r="G95" t="n">
-        <v>9248.416666666666</v>
+        <v>9249.25</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>9220</v>
       </c>
       <c r="F96" t="n">
-        <v>31.5</v>
+        <v>75.5</v>
       </c>
       <c r="G96" t="n">
-        <v>9247.583333333334</v>
+        <v>9248.416666666666</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2878,24 +3168,27 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="C97" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="D97" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="E97" t="n">
-        <v>9250</v>
+        <v>9220</v>
       </c>
       <c r="F97" t="n">
-        <v>29.5</v>
+        <v>31.5</v>
       </c>
       <c r="G97" t="n">
-        <v>9247.25</v>
+        <v>9247.583333333334</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2904,24 +3197,27 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="C98" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="D98" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="E98" t="n">
-        <v>9220</v>
+        <v>9250</v>
       </c>
       <c r="F98" t="n">
-        <v>4.4647</v>
+        <v>29.5</v>
       </c>
       <c r="G98" t="n">
-        <v>9247.5</v>
+        <v>9247.25</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>9245</v>
+        <v>9220</v>
       </c>
       <c r="C99" t="n">
-        <v>9245</v>
+        <v>9220</v>
       </c>
       <c r="D99" t="n">
-        <v>9245</v>
+        <v>9220</v>
       </c>
       <c r="E99" t="n">
-        <v>9235</v>
+        <v>9220</v>
       </c>
       <c r="F99" t="n">
-        <v>77.5</v>
+        <v>4.4647</v>
       </c>
       <c r="G99" t="n">
-        <v>9247.083333333334</v>
+        <v>9247.5</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>9240</v>
+        <v>9245</v>
       </c>
       <c r="C100" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="D100" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="E100" t="n">
-        <v>9240</v>
+        <v>9235</v>
       </c>
       <c r="F100" t="n">
-        <v>235</v>
+        <v>77.5</v>
       </c>
       <c r="G100" t="n">
-        <v>9247.25</v>
+        <v>9247.083333333334</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>9260</v>
+        <v>9240</v>
       </c>
       <c r="C101" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="D101" t="n">
-        <v>9260</v>
+        <v>9280</v>
       </c>
       <c r="E101" t="n">
-        <v>9255</v>
+        <v>9240</v>
       </c>
       <c r="F101" t="n">
-        <v>43</v>
+        <v>235</v>
       </c>
       <c r="G101" t="n">
-        <v>9247</v>
+        <v>9247.25</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>9250</v>
+        <v>9260</v>
       </c>
       <c r="C102" t="n">
-        <v>9245</v>
+        <v>9255</v>
       </c>
       <c r="D102" t="n">
-        <v>9250</v>
+        <v>9260</v>
       </c>
       <c r="E102" t="n">
-        <v>9245</v>
+        <v>9255</v>
       </c>
       <c r="F102" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G102" t="n">
-        <v>9247.666666666666</v>
+        <v>9247</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="C103" t="n">
         <v>9245</v>
       </c>
       <c r="D103" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="E103" t="n">
         <v>9245</v>
       </c>
       <c r="F103" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G103" t="n">
-        <v>9246.916666666666</v>
+        <v>9247.666666666666</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="C104" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="D104" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="E104" t="n">
-        <v>9280</v>
+        <v>9245</v>
       </c>
       <c r="F104" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G104" t="n">
-        <v>9248.25</v>
+        <v>9246.916666666666</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3086,24 +3400,27 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="C105" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="D105" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="E105" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="F105" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G105" t="n">
-        <v>9247.916666666666</v>
+        <v>9248.25</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3112,24 +3429,27 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="C106" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="D106" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="E106" t="n">
-        <v>9280</v>
+        <v>9270</v>
       </c>
       <c r="F106" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G106" t="n">
-        <v>9247.75</v>
+        <v>9247.916666666666</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3138,24 +3458,27 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="C107" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="D107" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="E107" t="n">
-        <v>9255</v>
+        <v>9280</v>
       </c>
       <c r="F107" t="n">
-        <v>0.5402</v>
+        <v>29</v>
       </c>
       <c r="G107" t="n">
-        <v>9248.833333333334</v>
+        <v>9247.75</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>9275</v>
+        <v>9255</v>
       </c>
       <c r="C108" t="n">
-        <v>9275</v>
+        <v>9255</v>
       </c>
       <c r="D108" t="n">
-        <v>9275</v>
+        <v>9255</v>
       </c>
       <c r="E108" t="n">
-        <v>9275</v>
+        <v>9255</v>
       </c>
       <c r="F108" t="n">
-        <v>652.2395</v>
+        <v>0.5402</v>
       </c>
       <c r="G108" t="n">
-        <v>9250.25</v>
+        <v>9248.833333333334</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="C109" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="D109" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="E109" t="n">
-        <v>9260</v>
+        <v>9275</v>
       </c>
       <c r="F109" t="n">
-        <v>1.8186</v>
+        <v>652.2395</v>
       </c>
       <c r="G109" t="n">
-        <v>9250.083333333334</v>
+        <v>9250.25</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3228,12 +3557,15 @@
         <v>9260</v>
       </c>
       <c r="F110" t="n">
-        <v>192.14</v>
+        <v>1.8186</v>
       </c>
       <c r="G110" t="n">
-        <v>9249.5</v>
+        <v>9250.083333333334</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>9215</v>
+        <v>9260</v>
       </c>
       <c r="C111" t="n">
-        <v>9280</v>
+        <v>9260</v>
       </c>
       <c r="D111" t="n">
-        <v>9280</v>
+        <v>9260</v>
       </c>
       <c r="E111" t="n">
-        <v>9215</v>
+        <v>9260</v>
       </c>
       <c r="F111" t="n">
-        <v>49.303</v>
+        <v>192.14</v>
       </c>
       <c r="G111" t="n">
-        <v>9249.333333333334</v>
+        <v>9249.5</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="C112" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="D112" t="n">
-        <v>9265</v>
+        <v>9280</v>
       </c>
       <c r="E112" t="n">
-        <v>9265</v>
+        <v>9215</v>
       </c>
       <c r="F112" t="n">
-        <v>6.4176</v>
+        <v>49.303</v>
       </c>
       <c r="G112" t="n">
-        <v>9248.916666666666</v>
+        <v>9249.333333333334</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,24 +3632,27 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="C113" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="D113" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="E113" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="F113" t="n">
-        <v>30.15526066</v>
+        <v>6.4176</v>
       </c>
       <c r="G113" t="n">
-        <v>9250</v>
+        <v>9248.916666666666</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="C114" t="n">
-        <v>9200</v>
+        <v>9255</v>
       </c>
       <c r="D114" t="n">
-        <v>9245</v>
+        <v>9255</v>
       </c>
       <c r="E114" t="n">
-        <v>9200</v>
+        <v>9250</v>
       </c>
       <c r="F114" t="n">
-        <v>80.992</v>
+        <v>30.15526066</v>
       </c>
       <c r="G114" t="n">
-        <v>9250.166666666666</v>
+        <v>9250</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>9230</v>
+        <v>9245</v>
       </c>
       <c r="C115" t="n">
-        <v>9230</v>
+        <v>9200</v>
       </c>
       <c r="D115" t="n">
-        <v>9230</v>
+        <v>9245</v>
       </c>
       <c r="E115" t="n">
-        <v>9230</v>
+        <v>9200</v>
       </c>
       <c r="F115" t="n">
-        <v>9.3034</v>
+        <v>80.992</v>
       </c>
       <c r="G115" t="n">
-        <v>9249.416666666666</v>
+        <v>9250.166666666666</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,24 +3719,27 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="C116" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="D116" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="E116" t="n">
-        <v>9240</v>
+        <v>9230</v>
       </c>
       <c r="F116" t="n">
-        <v>28.2298</v>
+        <v>9.3034</v>
       </c>
       <c r="G116" t="n">
-        <v>9248.916666666666</v>
+        <v>9249.416666666666</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>9280</v>
+        <v>9240</v>
       </c>
       <c r="C117" t="n">
-        <v>9270</v>
+        <v>9240</v>
       </c>
       <c r="D117" t="n">
-        <v>9280</v>
+        <v>9240</v>
       </c>
       <c r="E117" t="n">
-        <v>9270</v>
+        <v>9240</v>
       </c>
       <c r="F117" t="n">
-        <v>110</v>
+        <v>28.2298</v>
       </c>
       <c r="G117" t="n">
-        <v>9248.833333333334</v>
+        <v>9248.916666666666</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3424,24 +3777,27 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="C118" t="n">
         <v>9270</v>
       </c>
       <c r="D118" t="n">
-        <v>9270</v>
+        <v>9280</v>
       </c>
       <c r="E118" t="n">
         <v>9270</v>
       </c>
       <c r="F118" t="n">
-        <v>98.5</v>
+        <v>110</v>
       </c>
       <c r="G118" t="n">
         <v>9248.833333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3453,21 +3809,24 @@
         <v>9270</v>
       </c>
       <c r="C119" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="D119" t="n">
-        <v>9275</v>
+        <v>9270</v>
       </c>
       <c r="E119" t="n">
         <v>9270</v>
       </c>
       <c r="F119" t="n">
-        <v>6</v>
+        <v>98.5</v>
       </c>
       <c r="G119" t="n">
-        <v>9248.916666666666</v>
+        <v>9248.833333333334</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3476,24 +3835,27 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>9220</v>
+        <v>9270</v>
       </c>
       <c r="C120" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="D120" t="n">
-        <v>9220</v>
+        <v>9275</v>
       </c>
       <c r="E120" t="n">
-        <v>9220</v>
+        <v>9270</v>
       </c>
       <c r="F120" t="n">
-        <v>5.8878</v>
+        <v>6</v>
       </c>
       <c r="G120" t="n">
-        <v>9248</v>
+        <v>9248.916666666666</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>9210</v>
+        <v>9220</v>
       </c>
       <c r="C121" t="n">
-        <v>9210</v>
+        <v>9220</v>
       </c>
       <c r="D121" t="n">
-        <v>9210</v>
+        <v>9220</v>
       </c>
       <c r="E121" t="n">
-        <v>9210</v>
+        <v>9220</v>
       </c>
       <c r="F121" t="n">
-        <v>22.6889</v>
+        <v>5.8878</v>
       </c>
       <c r="G121" t="n">
-        <v>9246.916666666666</v>
+        <v>9248</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3528,24 +3893,27 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>9280</v>
+        <v>9210</v>
       </c>
       <c r="C122" t="n">
-        <v>9285</v>
+        <v>9210</v>
       </c>
       <c r="D122" t="n">
-        <v>9285</v>
+        <v>9210</v>
       </c>
       <c r="E122" t="n">
-        <v>9280</v>
+        <v>9210</v>
       </c>
       <c r="F122" t="n">
-        <v>31</v>
+        <v>22.6889</v>
       </c>
       <c r="G122" t="n">
-        <v>9247.083333333334</v>
+        <v>9246.916666666666</v>
       </c>
       <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3922,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="C123" t="n">
         <v>9285</v>
@@ -3563,15 +3931,18 @@
         <v>9285</v>
       </c>
       <c r="E123" t="n">
-        <v>9285</v>
+        <v>9280</v>
       </c>
       <c r="F123" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123" t="n">
-        <v>9248.666666666666</v>
+        <v>9247.083333333334</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3583,21 +3954,24 @@
         <v>9285</v>
       </c>
       <c r="C124" t="n">
-        <v>9295</v>
+        <v>9285</v>
       </c>
       <c r="D124" t="n">
-        <v>9295</v>
+        <v>9285</v>
       </c>
       <c r="E124" t="n">
         <v>9285</v>
       </c>
       <c r="F124" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G124" t="n">
-        <v>9250.166666666666</v>
+        <v>9248.666666666666</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,7 +3980,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>9295</v>
+        <v>9285</v>
       </c>
       <c r="C125" t="n">
         <v>9295</v>
@@ -3615,15 +3989,18 @@
         <v>9295</v>
       </c>
       <c r="E125" t="n">
-        <v>9295</v>
+        <v>9285</v>
       </c>
       <c r="F125" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G125" t="n">
-        <v>9252.25</v>
+        <v>9250.166666666666</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3632,7 +4009,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="C126" t="n">
         <v>9295</v>
@@ -3641,15 +4018,18 @@
         <v>9295</v>
       </c>
       <c r="E126" t="n">
-        <v>9290</v>
+        <v>9295</v>
       </c>
       <c r="F126" t="n">
-        <v>32.5</v>
+        <v>32</v>
       </c>
       <c r="G126" t="n">
-        <v>9253.083333333334</v>
+        <v>9252.25</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>9290</v>
       </c>
       <c r="C127" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="D127" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="E127" t="n">
         <v>9290</v>
       </c>
       <c r="F127" t="n">
-        <v>73.5</v>
+        <v>32.5</v>
       </c>
       <c r="G127" t="n">
-        <v>9253.75</v>
+        <v>9253.083333333334</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +4067,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="C128" t="n">
         <v>9300</v>
@@ -3693,15 +4076,18 @@
         <v>9300</v>
       </c>
       <c r="E128" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="F128" t="n">
-        <v>31.5</v>
+        <v>73.5</v>
       </c>
       <c r="G128" t="n">
-        <v>9256.416666666666</v>
+        <v>9253.75</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3710,24 +4096,27 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="C129" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="D129" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="E129" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="F129" t="n">
-        <v>19.04865446</v>
+        <v>31.5</v>
       </c>
       <c r="G129" t="n">
-        <v>9258.833333333334</v>
+        <v>9256.416666666666</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3736,24 +4125,27 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>9280</v>
+        <v>9290</v>
       </c>
       <c r="C130" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="D130" t="n">
-        <v>9300</v>
+        <v>9290</v>
       </c>
       <c r="E130" t="n">
-        <v>9280</v>
+        <v>9290</v>
       </c>
       <c r="F130" t="n">
-        <v>48.5</v>
+        <v>19.04865446</v>
       </c>
       <c r="G130" t="n">
-        <v>9260.25</v>
+        <v>9258.833333333334</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,24 +4154,27 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>9290</v>
+        <v>9280</v>
       </c>
       <c r="C131" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="D131" t="n">
-        <v>9290</v>
+        <v>9300</v>
       </c>
       <c r="E131" t="n">
-        <v>9290</v>
+        <v>9280</v>
       </c>
       <c r="F131" t="n">
-        <v>104.2597</v>
+        <v>48.5</v>
       </c>
       <c r="G131" t="n">
-        <v>9262.75</v>
+        <v>9260.25</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="C132" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="D132" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="E132" t="n">
-        <v>9295</v>
+        <v>9290</v>
       </c>
       <c r="F132" t="n">
-        <v>32.5208</v>
+        <v>104.2597</v>
       </c>
       <c r="G132" t="n">
-        <v>9264.166666666666</v>
+        <v>9262.75</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>9195</v>
+        <v>9295</v>
       </c>
       <c r="C133" t="n">
-        <v>9285</v>
+        <v>9295</v>
       </c>
       <c r="D133" t="n">
-        <v>9285</v>
+        <v>9295</v>
       </c>
       <c r="E133" t="n">
-        <v>9195</v>
+        <v>9295</v>
       </c>
       <c r="F133" t="n">
-        <v>34.5208</v>
+        <v>32.5208</v>
       </c>
       <c r="G133" t="n">
-        <v>9264.75</v>
+        <v>9264.166666666666</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3840,7 +4241,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="C134" t="n">
         <v>9285</v>
@@ -3849,15 +4250,18 @@
         <v>9285</v>
       </c>
       <c r="E134" t="n">
-        <v>9285</v>
+        <v>9195</v>
       </c>
       <c r="F134" t="n">
-        <v>12</v>
+        <v>34.5208</v>
       </c>
       <c r="G134" t="n">
-        <v>9264.916666666666</v>
+        <v>9264.75</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3869,21 +4273,24 @@
         <v>9285</v>
       </c>
       <c r="C135" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="D135" t="n">
-        <v>9290</v>
+        <v>9285</v>
       </c>
       <c r="E135" t="n">
-        <v>9140</v>
+        <v>9285</v>
       </c>
       <c r="F135" t="n">
-        <v>55.99947023</v>
+        <v>12</v>
       </c>
       <c r="G135" t="n">
-        <v>9262.75</v>
+        <v>9264.916666666666</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>9265</v>
+        <v>9285</v>
       </c>
       <c r="C136" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="D136" t="n">
-        <v>9265</v>
+        <v>9290</v>
       </c>
       <c r="E136" t="n">
-        <v>9265</v>
+        <v>9140</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>55.99947023</v>
       </c>
       <c r="G136" t="n">
-        <v>9262.583333333334</v>
+        <v>9262.75</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3918,24 +4328,27 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>9175</v>
+        <v>9265</v>
       </c>
       <c r="C137" t="n">
-        <v>9140</v>
+        <v>9265</v>
       </c>
       <c r="D137" t="n">
-        <v>9175</v>
+        <v>9265</v>
       </c>
       <c r="E137" t="n">
-        <v>9140</v>
+        <v>9265</v>
       </c>
       <c r="F137" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G137" t="n">
-        <v>9261.333333333334</v>
+        <v>9262.583333333334</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3944,24 +4357,27 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>9260</v>
+        <v>9175</v>
       </c>
       <c r="C138" t="n">
-        <v>9260</v>
+        <v>9140</v>
       </c>
       <c r="D138" t="n">
-        <v>9260</v>
+        <v>9175</v>
       </c>
       <c r="E138" t="n">
-        <v>9260</v>
+        <v>9140</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="G138" t="n">
-        <v>9261.166666666666</v>
+        <v>9261.333333333334</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="C139" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="D139" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="E139" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="F139" t="n">
-        <v>16.44</v>
+        <v>1</v>
       </c>
       <c r="G139" t="n">
-        <v>9261</v>
+        <v>9261.166666666666</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>9265</v>
       </c>
       <c r="F140" t="n">
-        <v>21.3365</v>
+        <v>16.44</v>
       </c>
       <c r="G140" t="n">
-        <v>9260.75</v>
+        <v>9261</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4022,24 +4444,27 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="C141" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="D141" t="n">
-        <v>9255</v>
+        <v>9265</v>
       </c>
       <c r="E141" t="n">
-        <v>9250</v>
+        <v>9265</v>
       </c>
       <c r="F141" t="n">
-        <v>16</v>
+        <v>21.3365</v>
       </c>
       <c r="G141" t="n">
-        <v>9260.416666666666</v>
+        <v>9260.75</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,21 +4476,24 @@
         <v>9250</v>
       </c>
       <c r="C142" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="D142" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="E142" t="n">
         <v>9250</v>
       </c>
       <c r="F142" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G142" t="n">
-        <v>9260</v>
+        <v>9260.416666666666</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4077,21 +4505,24 @@
         <v>9250</v>
       </c>
       <c r="C143" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="D143" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="E143" t="n">
         <v>9250</v>
       </c>
       <c r="F143" t="n">
-        <v>1.9997947</v>
+        <v>2</v>
       </c>
       <c r="G143" t="n">
-        <v>9259.666666666666</v>
+        <v>9260</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4100,24 +4531,27 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
+        <v>9250</v>
+      </c>
+      <c r="C144" t="n">
         <v>9255</v>
       </c>
-      <c r="C144" t="n">
-        <v>9260</v>
-      </c>
       <c r="D144" t="n">
-        <v>9260</v>
+        <v>9255</v>
       </c>
       <c r="E144" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="F144" t="n">
-        <v>6.99951782</v>
+        <v>1.9997947</v>
       </c>
       <c r="G144" t="n">
-        <v>9259.416666666666</v>
+        <v>9259.666666666666</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4129,21 +4563,24 @@
         <v>9255</v>
       </c>
       <c r="C145" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="D145" t="n">
-        <v>9255</v>
+        <v>9260</v>
       </c>
       <c r="E145" t="n">
         <v>9255</v>
       </c>
       <c r="F145" t="n">
-        <v>1</v>
+        <v>6.99951782</v>
       </c>
       <c r="G145" t="n">
-        <v>9259</v>
+        <v>9259.416666666666</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4152,24 +4589,27 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>9190</v>
+        <v>9255</v>
       </c>
       <c r="C146" t="n">
-        <v>9185</v>
+        <v>9255</v>
       </c>
       <c r="D146" t="n">
-        <v>9190</v>
+        <v>9255</v>
       </c>
       <c r="E146" t="n">
-        <v>9185</v>
+        <v>9255</v>
       </c>
       <c r="F146" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>9257.416666666666</v>
+        <v>9259</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4178,24 +4618,27 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>9250</v>
+        <v>9190</v>
       </c>
       <c r="C147" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="D147" t="n">
-        <v>9250</v>
+        <v>9190</v>
       </c>
       <c r="E147" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="G147" t="n">
-        <v>9256.916666666666</v>
+        <v>9257.416666666666</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4647,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="C148" t="n">
         <v>9250</v>
@@ -4213,15 +4656,18 @@
         <v>9250</v>
       </c>
       <c r="E148" t="n">
-        <v>9245</v>
+        <v>9250</v>
       </c>
       <c r="F148" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="G148" t="n">
-        <v>9256.333333333334</v>
+        <v>9256.916666666666</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4230,24 +4676,27 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>9255</v>
+        <v>9245</v>
       </c>
       <c r="C149" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="D149" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="E149" t="n">
-        <v>9255</v>
+        <v>9245</v>
       </c>
       <c r="F149" t="n">
-        <v>37.7228</v>
+        <v>6</v>
       </c>
       <c r="G149" t="n">
-        <v>9255.833333333334</v>
+        <v>9256.333333333334</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4256,24 +4705,27 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="C150" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="D150" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="E150" t="n">
-        <v>9250</v>
+        <v>9255</v>
       </c>
       <c r="F150" t="n">
-        <v>24.6299</v>
+        <v>37.7228</v>
       </c>
       <c r="G150" t="n">
-        <v>9255.25</v>
+        <v>9255.833333333334</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4282,24 +4734,27 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="C151" t="n">
-        <v>9265</v>
+        <v>9250</v>
       </c>
       <c r="D151" t="n">
-        <v>9265</v>
+        <v>9250</v>
       </c>
       <c r="E151" t="n">
-        <v>9260</v>
+        <v>9250</v>
       </c>
       <c r="F151" t="n">
-        <v>89.5</v>
+        <v>24.6299</v>
       </c>
       <c r="G151" t="n">
-        <v>9255</v>
+        <v>9255.25</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4308,7 +4763,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="C152" t="n">
         <v>9265</v>
@@ -4317,15 +4772,18 @@
         <v>9265</v>
       </c>
       <c r="E152" t="n">
-        <v>9265</v>
+        <v>9260</v>
       </c>
       <c r="F152" t="n">
-        <v>69</v>
+        <v>89.5</v>
       </c>
       <c r="G152" t="n">
-        <v>9256.25</v>
+        <v>9255</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4346,12 +4804,15 @@
         <v>9265</v>
       </c>
       <c r="F153" t="n">
-        <v>60.5</v>
+        <v>69</v>
       </c>
       <c r="G153" t="n">
-        <v>9257.083333333334</v>
+        <v>9256.25</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,24 +4821,27 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="C154" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="D154" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="E154" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="F154" t="n">
-        <v>1.996</v>
+        <v>60.5</v>
       </c>
       <c r="G154" t="n">
-        <v>9256.083333333334</v>
+        <v>9257.083333333334</v>
       </c>
       <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4386,24 +4850,27 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="C155" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="D155" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="E155" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="F155" t="n">
-        <v>2</v>
+        <v>1.996</v>
       </c>
       <c r="G155" t="n">
-        <v>9256.833333333334</v>
+        <v>9256.083333333334</v>
       </c>
       <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>9195</v>
+        <v>9260</v>
       </c>
       <c r="C156" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="D156" t="n">
-        <v>9195</v>
+        <v>9265</v>
       </c>
       <c r="E156" t="n">
-        <v>9195</v>
+        <v>9260</v>
       </c>
       <c r="F156" t="n">
-        <v>10.3605</v>
+        <v>2</v>
       </c>
       <c r="G156" t="n">
-        <v>9256.416666666666</v>
+        <v>9256.833333333334</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,24 +4908,27 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="C157" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="D157" t="n">
-        <v>9265</v>
+        <v>9195</v>
       </c>
       <c r="E157" t="n">
-        <v>9260</v>
+        <v>9195</v>
       </c>
       <c r="F157" t="n">
-        <v>10.99965488</v>
+        <v>10.3605</v>
       </c>
       <c r="G157" t="n">
-        <v>9256.666666666666</v>
+        <v>9256.416666666666</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4464,24 +4937,27 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>9185</v>
+        <v>9260</v>
       </c>
       <c r="C158" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="D158" t="n">
-        <v>9185</v>
+        <v>9265</v>
       </c>
       <c r="E158" t="n">
-        <v>9185</v>
+        <v>9260</v>
       </c>
       <c r="F158" t="n">
-        <v>11.0324</v>
+        <v>10.99965488</v>
       </c>
       <c r="G158" t="n">
-        <v>9256.083333333334</v>
+        <v>9256.666666666666</v>
       </c>
       <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4502,12 +4978,15 @@
         <v>9185</v>
       </c>
       <c r="F159" t="n">
-        <v>62.1968</v>
+        <v>11.0324</v>
       </c>
       <c r="G159" t="n">
-        <v>9255.083333333334</v>
+        <v>9256.083333333334</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="C160" t="n">
-        <v>9255</v>
+        <v>9185</v>
       </c>
       <c r="D160" t="n">
-        <v>9255</v>
+        <v>9185</v>
       </c>
       <c r="E160" t="n">
-        <v>9250</v>
+        <v>9185</v>
       </c>
       <c r="F160" t="n">
-        <v>29.5</v>
+        <v>62.1968</v>
       </c>
       <c r="G160" t="n">
-        <v>9254.666666666666</v>
+        <v>9255.083333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,7 +5024,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="C161" t="n">
         <v>9255</v>
@@ -4551,15 +5033,18 @@
         <v>9255</v>
       </c>
       <c r="E161" t="n">
-        <v>9255</v>
+        <v>9250</v>
       </c>
       <c r="F161" t="n">
-        <v>31.5</v>
+        <v>29.5</v>
       </c>
       <c r="G161" t="n">
         <v>9254.666666666666</v>
       </c>
       <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4571,21 +5056,24 @@
         <v>9255</v>
       </c>
       <c r="C162" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="D162" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="E162" t="n">
         <v>9255</v>
       </c>
       <c r="F162" t="n">
-        <v>189.5</v>
+        <v>31.5</v>
       </c>
       <c r="G162" t="n">
-        <v>9255</v>
+        <v>9254.666666666666</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,7 +5082,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="C163" t="n">
         <v>9265</v>
@@ -4603,15 +5091,18 @@
         <v>9265</v>
       </c>
       <c r="E163" t="n">
-        <v>9265</v>
+        <v>9255</v>
       </c>
       <c r="F163" t="n">
-        <v>10</v>
+        <v>189.5</v>
       </c>
       <c r="G163" t="n">
-        <v>9255.333333333334</v>
+        <v>9255</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4635,9 +5126,12 @@
         <v>10</v>
       </c>
       <c r="G164" t="n">
-        <v>9255.083333333334</v>
+        <v>9255.333333333334</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4658,12 +5152,15 @@
         <v>9265</v>
       </c>
       <c r="F165" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G165" t="n">
-        <v>9255</v>
+        <v>9255.083333333334</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4684,12 +5181,15 @@
         <v>9265</v>
       </c>
       <c r="F166" t="n">
-        <v>0.38804512</v>
+        <v>16</v>
       </c>
       <c r="G166" t="n">
-        <v>9254.75</v>
+        <v>9255</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="C167" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="D167" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="E167" t="n">
-        <v>9295</v>
+        <v>9265</v>
       </c>
       <c r="F167" t="n">
-        <v>5.7348</v>
+        <v>0.38804512</v>
       </c>
       <c r="G167" t="n">
-        <v>9255.416666666666</v>
+        <v>9254.75</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="C168" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="D168" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="E168" t="n">
-        <v>9300</v>
+        <v>9295</v>
       </c>
       <c r="F168" t="n">
-        <v>75.5</v>
+        <v>5.7348</v>
       </c>
       <c r="G168" t="n">
-        <v>9255.833333333334</v>
+        <v>9255.416666666666</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4762,12 +5268,15 @@
         <v>9300</v>
       </c>
       <c r="F169" t="n">
-        <v>31.5</v>
+        <v>75.5</v>
       </c>
       <c r="G169" t="n">
-        <v>9256.5</v>
+        <v>9255.833333333334</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>9300</v>
       </c>
       <c r="F170" t="n">
-        <v>33</v>
+        <v>31.5</v>
       </c>
       <c r="G170" t="n">
-        <v>9257.166666666666</v>
+        <v>9256.5</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>9300</v>
       </c>
       <c r="F171" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G171" t="n">
-        <v>9257.5</v>
+        <v>9257.166666666666</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,12 +5355,15 @@
         <v>9300</v>
       </c>
       <c r="F172" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G172" t="n">
-        <v>9258.083333333334</v>
+        <v>9257.5</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4857,21 +5375,24 @@
         <v>9300</v>
       </c>
       <c r="C173" t="n">
-        <v>9320</v>
+        <v>9300</v>
       </c>
       <c r="D173" t="n">
-        <v>9320</v>
+        <v>9300</v>
       </c>
       <c r="E173" t="n">
         <v>9300</v>
       </c>
       <c r="F173" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G173" t="n">
-        <v>9259.166666666666</v>
+        <v>9258.083333333334</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +5401,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>9320</v>
+        <v>9300</v>
       </c>
       <c r="C174" t="n">
         <v>9320</v>
@@ -4889,15 +5410,18 @@
         <v>9320</v>
       </c>
       <c r="E174" t="n">
-        <v>9320</v>
+        <v>9300</v>
       </c>
       <c r="F174" t="n">
-        <v>18.7</v>
+        <v>33</v>
       </c>
       <c r="G174" t="n">
-        <v>9261.166666666666</v>
+        <v>9259.166666666666</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>9245</v>
+        <v>9320</v>
       </c>
       <c r="C175" t="n">
-        <v>9215</v>
+        <v>9320</v>
       </c>
       <c r="D175" t="n">
-        <v>9245</v>
+        <v>9320</v>
       </c>
       <c r="E175" t="n">
-        <v>9215</v>
+        <v>9320</v>
       </c>
       <c r="F175" t="n">
-        <v>300</v>
+        <v>18.7</v>
       </c>
       <c r="G175" t="n">
-        <v>9260.916666666666</v>
+        <v>9261.166666666666</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,24 +5459,27 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>9300</v>
+        <v>9245</v>
       </c>
       <c r="C176" t="n">
-        <v>9330</v>
+        <v>9215</v>
       </c>
       <c r="D176" t="n">
-        <v>9330</v>
+        <v>9245</v>
       </c>
       <c r="E176" t="n">
-        <v>9300</v>
+        <v>9215</v>
       </c>
       <c r="F176" t="n">
-        <v>39.5</v>
+        <v>300</v>
       </c>
       <c r="G176" t="n">
-        <v>9262.416666666666</v>
+        <v>9260.916666666666</v>
       </c>
       <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,7 +5488,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>9330</v>
+        <v>9300</v>
       </c>
       <c r="C177" t="n">
         <v>9330</v>
@@ -4967,15 +5497,18 @@
         <v>9330</v>
       </c>
       <c r="E177" t="n">
-        <v>9330</v>
+        <v>9300</v>
       </c>
       <c r="F177" t="n">
-        <v>23</v>
+        <v>39.5</v>
       </c>
       <c r="G177" t="n">
-        <v>9263.416666666666</v>
+        <v>9262.416666666666</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4984,24 +5517,27 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>9280</v>
+        <v>9330</v>
       </c>
       <c r="C178" t="n">
-        <v>9270</v>
+        <v>9330</v>
       </c>
       <c r="D178" t="n">
-        <v>9280</v>
+        <v>9330</v>
       </c>
       <c r="E178" t="n">
-        <v>9270</v>
+        <v>9330</v>
       </c>
       <c r="F178" t="n">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="G178" t="n">
         <v>9263.416666666666</v>
       </c>
       <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5010,544 +5546,27 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>9330</v>
+        <v>9280</v>
       </c>
       <c r="C179" t="n">
-        <v>9345</v>
+        <v>9270</v>
       </c>
       <c r="D179" t="n">
-        <v>9345</v>
+        <v>9280</v>
       </c>
       <c r="E179" t="n">
-        <v>9330</v>
+        <v>9270</v>
       </c>
       <c r="F179" t="n">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="G179" t="n">
-        <v>9264.583333333334</v>
+        <v>9263.416666666666</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>9280</v>
-      </c>
-      <c r="C180" t="n">
-        <v>9345</v>
-      </c>
-      <c r="D180" t="n">
-        <v>9345</v>
-      </c>
-      <c r="E180" t="n">
-        <v>9280</v>
-      </c>
-      <c r="F180" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="G180" t="n">
-        <v>9266.666666666666</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>9345</v>
-      </c>
-      <c r="C181" t="n">
-        <v>9345</v>
-      </c>
-      <c r="D181" t="n">
-        <v>9345</v>
-      </c>
-      <c r="E181" t="n">
-        <v>9345</v>
-      </c>
-      <c r="F181" t="n">
-        <v>100</v>
-      </c>
-      <c r="G181" t="n">
-        <v>9268.916666666666</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>9280</v>
-      </c>
-      <c r="C182" t="n">
-        <v>9280</v>
-      </c>
-      <c r="D182" t="n">
-        <v>9280</v>
-      </c>
-      <c r="E182" t="n">
-        <v>9280</v>
-      </c>
-      <c r="F182" t="n">
-        <v>82.4289</v>
-      </c>
-      <c r="G182" t="n">
-        <v>9268.833333333334</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>9290</v>
-      </c>
-      <c r="C183" t="n">
-        <v>9320</v>
-      </c>
-      <c r="D183" t="n">
-        <v>9320</v>
-      </c>
-      <c r="E183" t="n">
-        <v>9270</v>
-      </c>
-      <c r="F183" t="n">
-        <v>280.2869</v>
-      </c>
-      <c r="G183" t="n">
-        <v>9269.416666666666</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>9310</v>
-      </c>
-      <c r="C184" t="n">
-        <v>9310</v>
-      </c>
-      <c r="D184" t="n">
-        <v>9310</v>
-      </c>
-      <c r="E184" t="n">
-        <v>9310</v>
-      </c>
-      <c r="F184" t="n">
-        <v>1.7348</v>
-      </c>
-      <c r="G184" t="n">
-        <v>9269.666666666666</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>9265</v>
-      </c>
-      <c r="C185" t="n">
-        <v>9265</v>
-      </c>
-      <c r="D185" t="n">
-        <v>9265</v>
-      </c>
-      <c r="E185" t="n">
-        <v>9265</v>
-      </c>
-      <c r="F185" t="n">
-        <v>2</v>
-      </c>
-      <c r="G185" t="n">
-        <v>9269.166666666666</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>9240</v>
-      </c>
-      <c r="C186" t="n">
-        <v>9240</v>
-      </c>
-      <c r="D186" t="n">
-        <v>9240</v>
-      </c>
-      <c r="E186" t="n">
-        <v>9240</v>
-      </c>
-      <c r="F186" t="n">
-        <v>1</v>
-      </c>
-      <c r="G186" t="n">
-        <v>9268.25</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>9240</v>
-      </c>
-      <c r="C187" t="n">
-        <v>9295</v>
-      </c>
-      <c r="D187" t="n">
-        <v>9295</v>
-      </c>
-      <c r="E187" t="n">
-        <v>9215</v>
-      </c>
-      <c r="F187" t="n">
-        <v>334.4722</v>
-      </c>
-      <c r="G187" t="n">
-        <v>9268.166666666666</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>9215</v>
-      </c>
-      <c r="C188" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D188" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E188" t="n">
-        <v>9210</v>
-      </c>
-      <c r="F188" t="n">
-        <v>344.6333</v>
-      </c>
-      <c r="G188" t="n">
-        <v>9268.166666666666</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>9245</v>
-      </c>
-      <c r="C189" t="n">
-        <v>9250</v>
-      </c>
-      <c r="D189" t="n">
-        <v>9250</v>
-      </c>
-      <c r="E189" t="n">
-        <v>9245</v>
-      </c>
-      <c r="F189" t="n">
-        <v>200.5</v>
-      </c>
-      <c r="G189" t="n">
-        <v>9267.5</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>9250</v>
-      </c>
-      <c r="C190" t="n">
-        <v>9250</v>
-      </c>
-      <c r="D190" t="n">
-        <v>9250</v>
-      </c>
-      <c r="E190" t="n">
-        <v>9250</v>
-      </c>
-      <c r="F190" t="n">
-        <v>200</v>
-      </c>
-      <c r="G190" t="n">
-        <v>9266.666666666666</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>9225</v>
-      </c>
-      <c r="C191" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D191" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E191" t="n">
-        <v>9225</v>
-      </c>
-      <c r="F191" t="n">
-        <v>216.5</v>
-      </c>
-      <c r="G191" t="n">
-        <v>9266.833333333334</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>9195</v>
-      </c>
-      <c r="C192" t="n">
-        <v>9250</v>
-      </c>
-      <c r="D192" t="n">
-        <v>9250</v>
-      </c>
-      <c r="E192" t="n">
-        <v>9195</v>
-      </c>
-      <c r="F192" t="n">
-        <v>204.6597</v>
-      </c>
-      <c r="G192" t="n">
-        <v>9266.083333333334</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>9250</v>
-      </c>
-      <c r="C193" t="n">
-        <v>9250</v>
-      </c>
-      <c r="D193" t="n">
-        <v>9250</v>
-      </c>
-      <c r="E193" t="n">
-        <v>9250</v>
-      </c>
-      <c r="F193" t="n">
-        <v>11</v>
-      </c>
-      <c r="G193" t="n">
-        <v>9265.5</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>9200</v>
-      </c>
-      <c r="C194" t="n">
-        <v>9290</v>
-      </c>
-      <c r="D194" t="n">
-        <v>9290</v>
-      </c>
-      <c r="E194" t="n">
-        <v>9200</v>
-      </c>
-      <c r="F194" t="n">
-        <v>429.7071</v>
-      </c>
-      <c r="G194" t="n">
-        <v>9265.583333333334</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>9290</v>
-      </c>
-      <c r="C195" t="n">
-        <v>9290</v>
-      </c>
-      <c r="D195" t="n">
-        <v>9290</v>
-      </c>
-      <c r="E195" t="n">
-        <v>9290</v>
-      </c>
-      <c r="F195" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="G195" t="n">
-        <v>9268.083333333334</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>9250</v>
-      </c>
-      <c r="C196" t="n">
-        <v>9290</v>
-      </c>
-      <c r="D196" t="n">
-        <v>9290</v>
-      </c>
-      <c r="E196" t="n">
-        <v>9250</v>
-      </c>
-      <c r="F196" t="n">
-        <v>8</v>
-      </c>
-      <c r="G196" t="n">
-        <v>9268.5</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>9290</v>
-      </c>
-      <c r="C197" t="n">
-        <v>9290</v>
-      </c>
-      <c r="D197" t="n">
-        <v>9290</v>
-      </c>
-      <c r="E197" t="n">
-        <v>9290</v>
-      </c>
-      <c r="F197" t="n">
-        <v>23</v>
-      </c>
-      <c r="G197" t="n">
-        <v>9271</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>9290</v>
-      </c>
-      <c r="C198" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D198" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E198" t="n">
-        <v>9290</v>
-      </c>
-      <c r="F198" t="n">
-        <v>8</v>
-      </c>
-      <c r="G198" t="n">
-        <v>9271.666666666666</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>9300</v>
-      </c>
-      <c r="C199" t="n">
-        <v>9300</v>
-      </c>
-      <c r="D199" t="n">
-        <v>9300</v>
-      </c>
-      <c r="E199" t="n">
-        <v>9300</v>
-      </c>
-      <c r="F199" t="n">
-        <v>2</v>
-      </c>
-      <c r="G199" t="n">
-        <v>9272.25</v>
-      </c>
-      <c r="H199" t="n">
+      <c r="I179" t="n">
         <v>0</v>
       </c>
     </row>
